--- a/test_契約管理/已完成/test_契約管理_全駐車場一覧→車室返還物件解約.xlsx
+++ b/test_契約管理/已完成/test_契約管理_全駐車場一覧→車室返還物件解約.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9752" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9751" uniqueCount="872">
   <si>
     <t>URL:</t>
   </si>
@@ -4313,8 +4313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM140"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:XFD116"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4721,9 +4721,7 @@
       <c r="B55" s="58"/>
     </row>
     <row r="56" spans="1:75" s="57" customFormat="1" ht="14.25">
-      <c r="A56" s="64" t="s">
-        <v>162</v>
-      </c>
+      <c r="A56" s="64"/>
       <c r="B56" s="63" t="s">
         <v>554</v>
       </c>
@@ -22317,7 +22315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:BK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>

--- a/test_契約管理/已完成/test_契約管理_全駐車場一覧→車室返還物件解約.xlsx
+++ b/test_契約管理/已完成/test_契約管理_全駐車場一覧→車室返還物件解約.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9751" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9758" uniqueCount="875">
   <si>
     <t>URL:</t>
   </si>
@@ -2966,6 +2966,18 @@
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序物件番号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4313,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14499,10 +14511,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14526,22 +14538,22 @@
     </row>
     <row r="3" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A3" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="221" t="s">
-        <v>845</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="B3" s="221"/>
       <c r="C3" s="220"/>
-      <c r="H3" s="212" t="s">
-        <v>846</v>
-      </c>
     </row>
     <row r="4" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A4" s="222" t="s">
-        <v>855</v>
-      </c>
-      <c r="B4" s="221"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="221" t="s">
+        <v>845</v>
+      </c>
       <c r="C4" s="220"/>
+      <c r="H4" s="212" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A5" s="222" t="s">
@@ -14566,152 +14578,146 @@
         <v>834</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A7" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="169" t="s">
-        <v>830</v>
-      </c>
-      <c r="H7" s="169" t="s">
-        <v>831</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="222" t="s">
-        <v>860</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="169" t="s">
+        <v>830</v>
+      </c>
+      <c r="H8" s="169" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="222" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="222" t="s">
         <v>653</v>
       </c>
-      <c r="B9" s="212" t="s">
+      <c r="B10" s="212" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="212" customFormat="1" ht="14.25">
-      <c r="A12" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="221" t="s">
-        <v>793</v>
-      </c>
-      <c r="C12" s="220"/>
     </row>
     <row r="13" spans="1:8" s="212" customFormat="1" ht="14.25">
-      <c r="A13" s="222"/>
-      <c r="B13" s="221"/>
+      <c r="A13" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="221" t="s">
+        <v>793</v>
+      </c>
       <c r="C13" s="220"/>
     </row>
     <row r="14" spans="1:8" s="212" customFormat="1" ht="14.25">
-      <c r="A14" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="221" t="s">
-        <v>845</v>
-      </c>
+      <c r="A14" s="222"/>
+      <c r="B14" s="221"/>
       <c r="C14" s="220"/>
-      <c r="H14" s="212" t="s">
-        <v>846</v>
-      </c>
     </row>
     <row r="15" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A15" s="222" t="s">
-        <v>855</v>
-      </c>
-      <c r="B15" s="221"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="221" t="s">
+        <v>845</v>
+      </c>
       <c r="C15" s="220"/>
+      <c r="H15" s="212" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A16" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="212" t="s">
-        <v>760</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="B16" s="221"/>
       <c r="C16" s="220"/>
-      <c r="H16" s="212" t="s">
-        <v>862</v>
-      </c>
     </row>
     <row r="17" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A17" s="222" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="212" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" s="220"/>
+      <c r="H17" s="212" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="212" customFormat="1" ht="14.25">
+      <c r="A18" s="222" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="212" t="s">
         <v>859</v>
       </c>
-      <c r="H17" s="212" t="s">
+      <c r="H18" s="212" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="222" t="s">
+    <row r="19" spans="1:8" ht="14.25">
+      <c r="A19" s="222" t="s">
         <v>653</v>
       </c>
-      <c r="B18" s="221" t="s">
+      <c r="B19" s="221" t="s">
         <v>864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25">
-      <c r="A21" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="212" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25">
       <c r="A22" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="169" t="s">
-        <v>866</v>
-      </c>
-      <c r="H22" s="212" t="s">
-        <v>867</v>
+        <v>0</v>
+      </c>
+      <c r="B22" s="212" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25">
       <c r="A23" s="222" t="s">
-        <v>855</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="169" t="s">
+        <v>866</v>
+      </c>
+      <c r="H23" s="212" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25">
       <c r="A24" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="169" t="s">
-        <v>868</v>
-      </c>
-      <c r="H24" s="212"/>
+        <v>855</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="14.25">
       <c r="A25" s="222" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="169" t="s">
-        <v>718</v>
-      </c>
-      <c r="H25" s="169" t="s">
-        <v>869</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="H25" s="212"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25">
+    <row r="26" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A26" s="222" t="s">
-        <v>870</v>
-      </c>
-      <c r="B26" s="169">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25">
       <c r="A27" s="222" t="s">
-        <v>653</v>
-      </c>
-      <c r="B27" s="156" t="s">
-        <v>871</v>
+        <v>15</v>
+      </c>
+      <c r="B27" s="169" t="s">
+        <v>718</v>
+      </c>
+      <c r="H27" s="169" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
@@ -14719,14 +14725,30 @@
         <v>870</v>
       </c>
       <c r="B28" s="169">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25">
       <c r="A29" s="222" t="s">
+        <v>653</v>
+      </c>
+      <c r="B29" s="156" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="222" t="s">
         <v>870</v>
       </c>
-      <c r="B29" s="169">
+      <c r="B30" s="169">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="222" t="s">
+        <v>870</v>
+      </c>
+      <c r="B31" s="169">
         <v>0</v>
       </c>
     </row>
@@ -22316,7 +22338,7 @@
   <dimension ref="B3:BK54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22546,10 +22568,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22653,8 +22675,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25">
-      <c r="A9" s="153" t="s">
-        <v>700</v>
+      <c r="A9" s="222" t="s">
+        <v>872</v>
       </c>
       <c r="B9" s="115"/>
       <c r="C9" s="115"/>
@@ -22663,151 +22685,147 @@
       <c r="F9" s="115"/>
       <c r="G9" s="115"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25">
-      <c r="A10" s="117" t="s">
+    <row r="10" spans="1:10" s="212" customFormat="1" ht="14.25">
+      <c r="A10" s="222" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25">
+      <c r="A11" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B11" s="115" t="s">
         <v>702</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115" t="s">
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115" t="s">
         <v>703</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J11" s="31"/>
     </row>
-    <row r="11" spans="1:10" s="119" customFormat="1" ht="14.25">
-      <c r="A11" s="128" t="s">
+    <row r="12" spans="1:10" s="119" customFormat="1" ht="14.25">
+      <c r="A12" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B12" s="120" t="s">
         <v>704</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C12" s="121" t="s">
         <v>706</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D12" s="122" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="115" customFormat="1" ht="14.25">
-      <c r="A12" s="117" t="s">
+    <row r="13" spans="1:10" s="115" customFormat="1" ht="14.25">
+      <c r="A13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B13" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C13" s="121" t="s">
         <v>710</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D13" s="122" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="129" customFormat="1" ht="14.25">
-      <c r="A13" s="128" t="s">
+    <row r="14" spans="1:10" s="129" customFormat="1" ht="14.25">
+      <c r="A14" s="128" t="s">
         <v>653</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B14" s="156" t="s">
         <v>752</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25">
-      <c r="A14" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>711</v>
-      </c>
-      <c r="H14" t="s">
-        <v>712</v>
-      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="14.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="117" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>713</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
+        <v>711</v>
+      </c>
+      <c r="H15" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="153" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>713</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>714</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="155" customFormat="1" ht="14.25">
-      <c r="A17" s="153" t="s">
+    <row r="18" spans="1:8" s="155" customFormat="1" ht="14.25">
+      <c r="A18" s="153" t="s">
         <v>653</v>
       </c>
-      <c r="B17" s="156" t="s">
+      <c r="B18" s="156" t="s">
         <v>715</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
     </row>
-    <row r="18" spans="1:8" s="115" customFormat="1">
-      <c r="B18" s="144"/>
+    <row r="19" spans="1:8" s="115" customFormat="1">
+      <c r="B19" s="144"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="117" t="s">
+    <row r="20" spans="1:8" ht="14.25">
+      <c r="A20" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B20" s="145" t="s">
         <v>716</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="115" customFormat="1" ht="14.25">
-      <c r="A20" s="153" t="s">
+    <row r="21" spans="1:8" s="115" customFormat="1" ht="14.25">
+      <c r="A21" s="153" t="s">
         <v>653</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B21" s="156" t="s">
         <v>753</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-    </row>
-    <row r="21" spans="1:8" s="155" customFormat="1" ht="14.25">
-      <c r="A21" s="153"/>
-      <c r="B21" s="156"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
     </row>
     <row r="22" spans="1:8" s="155" customFormat="1" ht="14.25">
-      <c r="A22" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="152" t="s">
-        <v>695</v>
-      </c>
-      <c r="C22" s="151"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="156"/>
     </row>
     <row r="23" spans="1:8" s="155" customFormat="1" ht="14.25">
       <c r="A23" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="155" t="s">
-        <v>696</v>
+        <v>0</v>
+      </c>
+      <c r="B23" s="152" t="s">
+        <v>695</v>
       </c>
       <c r="C23" s="151"/>
     </row>
@@ -22816,71 +22834,66 @@
         <v>15</v>
       </c>
       <c r="B24" s="155" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C24" s="151"/>
-      <c r="H24" s="155" t="s">
-        <v>698</v>
-      </c>
     </row>
     <row r="25" spans="1:8" s="155" customFormat="1" ht="14.25">
       <c r="A25" s="153" t="s">
-        <v>700</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="155" t="s">
+        <v>697</v>
       </c>
       <c r="C25" s="151"/>
+      <c r="H25" s="155" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="155" customFormat="1" ht="14.25">
       <c r="A26" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="155" t="s">
-        <v>755</v>
+        <v>700</v>
       </c>
       <c r="C26" s="151"/>
-      <c r="H26" s="155" t="s">
-        <v>756</v>
-      </c>
     </row>
     <row r="27" spans="1:8" s="155" customFormat="1" ht="14.25">
       <c r="A27" s="153" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="155" t="s">
-        <v>699</v>
-      </c>
-      <c r="C27" s="118"/>
+        <v>755</v>
+      </c>
+      <c r="C27" s="151"/>
       <c r="H27" s="155" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="155" customFormat="1" ht="14.25">
       <c r="A28" s="153" t="s">
-        <v>700</v>
+        <v>15</v>
+      </c>
+      <c r="B28" s="155" t="s">
+        <v>699</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="H28" s="155" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="155" customFormat="1" ht="14.25">
-      <c r="A29" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="155" t="s">
-        <v>702</v>
-      </c>
-      <c r="H29" s="155" t="s">
-        <v>703</v>
+      <c r="A29" s="222" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="155" customFormat="1" ht="14.25">
       <c r="A30" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="120" t="s">
-        <v>704</v>
-      </c>
-      <c r="C30" s="121" t="s">
-        <v>706</v>
-      </c>
-      <c r="D30" s="122" t="s">
-        <v>705</v>
+        <v>15</v>
+      </c>
+      <c r="B30" s="155" t="s">
+        <v>702</v>
+      </c>
+      <c r="H30" s="155" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="155" customFormat="1" ht="14.25">
@@ -22888,24 +22901,27 @@
         <v>1</v>
       </c>
       <c r="B31" s="120" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C31" s="121" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D31" s="122" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="155" customFormat="1" ht="14.25">
       <c r="A32" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="155" t="s">
-        <v>711</v>
-      </c>
-      <c r="H32" s="155" t="s">
-        <v>712</v>
+        <v>1</v>
+      </c>
+      <c r="B32" s="120" t="s">
+        <v>707</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>710</v>
+      </c>
+      <c r="D32" s="122" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="155" customFormat="1" ht="14.25">
@@ -22913,46 +22929,48 @@
         <v>15</v>
       </c>
       <c r="B33" s="155" t="s">
-        <v>713</v>
-      </c>
-      <c r="H33" s="155">
-        <v>4</v>
+        <v>711</v>
+      </c>
+      <c r="H33" s="155" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="155" customFormat="1" ht="14.25">
       <c r="A34" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="156" t="s">
+      <c r="B34" s="155" t="s">
+        <v>713</v>
+      </c>
+      <c r="H34" s="155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="155" customFormat="1" ht="14.25">
+      <c r="A35" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="156" t="s">
         <v>716</v>
       </c>
-      <c r="H34" s="155" t="s">
+      <c r="H35" s="155" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="169" customFormat="1" ht="14.25">
-      <c r="A35" s="182"/>
-      <c r="B35" s="156"/>
+    <row r="36" spans="1:8" s="169" customFormat="1" ht="14.25">
+      <c r="A36" s="182"/>
+      <c r="B36" s="156"/>
     </row>
-    <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="117"/>
-      <c r="H36" s="115"/>
-    </row>
-    <row r="37" spans="1:8" s="169" customFormat="1" ht="14.25">
-      <c r="A37" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="181" t="s">
-        <v>695</v>
-      </c>
-      <c r="C37" s="180"/>
+    <row r="37" spans="1:8" ht="14.25">
+      <c r="A37" s="117"/>
+      <c r="H37" s="115"/>
     </row>
     <row r="38" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A38" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="169" t="s">
-        <v>696</v>
+        <v>0</v>
+      </c>
+      <c r="B38" s="181" t="s">
+        <v>695</v>
       </c>
       <c r="C38" s="180"/>
     </row>
@@ -22961,70 +22979,65 @@
         <v>15</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C39" s="180"/>
-      <c r="H39" s="169" t="s">
-        <v>698</v>
-      </c>
     </row>
     <row r="40" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A40" s="182" t="s">
-        <v>700</v>
+        <v>15</v>
+      </c>
+      <c r="B40" s="169" t="s">
+        <v>697</v>
       </c>
       <c r="C40" s="180"/>
+      <c r="H40" s="169" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="41" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A41" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="169" t="s">
-        <v>755</v>
+        <v>700</v>
       </c>
       <c r="C41" s="180"/>
-      <c r="H41" s="169" t="s">
-        <v>756</v>
-      </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25">
+    <row r="42" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A42" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B42" t="s">
-        <v>838</v>
-      </c>
+      <c r="B42" s="169" t="s">
+        <v>755</v>
+      </c>
+      <c r="C42" s="180"/>
       <c r="H42" s="169" t="s">
-        <v>835</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
       <c r="A43" s="182" t="s">
-        <v>700</v>
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>838</v>
+      </c>
+      <c r="H43" s="169" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="169" customFormat="1" ht="14.25">
-      <c r="A44" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="169" t="s">
-        <v>702</v>
-      </c>
-      <c r="H44" s="169" t="s">
-        <v>703</v>
+    <row r="44" spans="1:8" ht="14.25">
+      <c r="A44" s="222" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A45" s="182" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="170" t="s">
-        <v>704</v>
-      </c>
-      <c r="C45" s="171" t="s">
-        <v>676</v>
-      </c>
-      <c r="D45" s="172" t="s">
-        <v>705</v>
+        <v>15</v>
+      </c>
+      <c r="B45" s="169" t="s">
+        <v>702</v>
+      </c>
+      <c r="H45" s="169" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="169" customFormat="1" ht="14.25">
@@ -23032,24 +23045,27 @@
         <v>1</v>
       </c>
       <c r="B46" s="170" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C46" s="171" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="D46" s="172" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A47" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="169" t="s">
-        <v>711</v>
-      </c>
-      <c r="H47" s="169" t="s">
-        <v>712</v>
+        <v>1</v>
+      </c>
+      <c r="B47" s="170" t="s">
+        <v>707</v>
+      </c>
+      <c r="C47" s="171" t="s">
+        <v>710</v>
+      </c>
+      <c r="D47" s="172" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="169" customFormat="1" ht="14.25">
@@ -23057,26 +23073,37 @@
         <v>15</v>
       </c>
       <c r="B48" s="169" t="s">
-        <v>836</v>
+        <v>711</v>
       </c>
       <c r="H48" s="169" t="s">
-        <v>837</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A49" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="156" t="s">
-        <v>716</v>
+      <c r="B49" s="169" t="s">
+        <v>836</v>
       </c>
       <c r="H49" s="169" t="s">
-        <v>717</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="169" customFormat="1" ht="14.25">
-      <c r="A50" s="182"/>
-      <c r="B50" s="156"/>
+      <c r="A50" s="182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="156" t="s">
+        <v>716</v>
+      </c>
+      <c r="H50" s="169" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="169" customFormat="1" ht="14.25">
+      <c r="A51" s="182"/>
+      <c r="B51" s="156"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -44664,10 +44691,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44688,45 +44715,46 @@
       <c r="A2" s="141"/>
       <c r="C2" s="140"/>
     </row>
-    <row r="3" spans="1:8" s="144" customFormat="1" ht="14.25">
-      <c r="A3" s="141"/>
-      <c r="C3" s="140"/>
+    <row r="3" spans="1:8" s="212" customFormat="1" ht="14.25">
+      <c r="A3" s="222"/>
+      <c r="C3" s="220"/>
     </row>
     <row r="4" spans="1:8" s="144" customFormat="1" ht="14.25">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="222" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="C4" s="140"/>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="212" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="144" customFormat="1" ht="14.25">
+      <c r="A5" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>851</v>
+      </c>
+      <c r="C5" s="140"/>
+      <c r="H5" s="169" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="119" customFormat="1" ht="14.25">
-      <c r="A5" s="128"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="142" t="s">
-        <v>702</v>
-      </c>
-      <c r="H6" s="169" t="s">
-        <v>796</v>
-      </c>
+    <row r="6" spans="1:8" s="119" customFormat="1" ht="14.25">
+      <c r="A6" s="128"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>797</v>
-      </c>
-      <c r="H7" t="s">
-        <v>802</v>
+      <c r="B7" s="142" t="s">
+        <v>702</v>
+      </c>
+      <c r="H7" s="169" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -44734,10 +44762,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
@@ -44745,24 +44773,21 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>798</v>
+      </c>
+      <c r="H9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>799</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="169" customFormat="1" ht="14.25">
-      <c r="A10" s="182" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="170" t="s">
-        <v>704</v>
-      </c>
-      <c r="C10" s="171" t="s">
-        <v>816</v>
-      </c>
-      <c r="D10" s="172" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="169" customFormat="1" ht="14.25">
@@ -44770,13 +44795,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="170" t="s">
-        <v>803</v>
+        <v>704</v>
       </c>
       <c r="C11" s="171" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="D11" s="172" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="169" customFormat="1" ht="14.25">
@@ -44784,13 +44809,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="170" t="s">
-        <v>707</v>
+        <v>803</v>
       </c>
       <c r="C12" s="171" t="s">
-        <v>809</v>
-      </c>
-      <c r="D12" s="157" t="s">
-        <v>806</v>
+        <v>804</v>
+      </c>
+      <c r="D12" s="172" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="169" customFormat="1" ht="14.25">
@@ -44798,79 +44823,93 @@
         <v>1</v>
       </c>
       <c r="B13" s="170" t="s">
+        <v>707</v>
+      </c>
+      <c r="C13" s="171" t="s">
+        <v>809</v>
+      </c>
+      <c r="D13" s="157" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="169" customFormat="1" ht="14.25">
+      <c r="A14" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="170" t="s">
         <v>807</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="C14" s="171" t="s">
         <v>810</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D14" s="157" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>720</v>
-      </c>
-      <c r="H14" s="169" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
       <c r="A15" s="182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>720</v>
+      </c>
+      <c r="H15" s="169" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="A16" s="182" t="s">
         <v>813</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B16" s="156" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="169" customFormat="1" ht="14.25">
-      <c r="A18" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="181" t="s">
-        <v>793</v>
-      </c>
-      <c r="C18" s="180"/>
     </row>
     <row r="19" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A19" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="169" t="s">
-        <v>794</v>
+        <v>0</v>
+      </c>
+      <c r="B19" s="181" t="s">
+        <v>793</v>
       </c>
       <c r="C19" s="180"/>
-      <c r="H19" s="169" t="s">
-        <v>795</v>
-      </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25">
+    <row r="20" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A20" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C20" s="180"/>
+      <c r="H20" s="169" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25">
+      <c r="A21" s="182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>814</v>
       </c>
-      <c r="H20" s="212" t="s">
+      <c r="H21" s="212" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="169" customFormat="1" ht="14.25">
-      <c r="A21" s="182" t="s">
-        <v>653</v>
-      </c>
-      <c r="B21" s="156" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25">
+    <row r="22" spans="1:8" s="169" customFormat="1" ht="14.25">
       <c r="A22" s="182" t="s">
         <v>653</v>
       </c>
       <c r="B22" s="156" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
+      <c r="A23" s="182" t="s">
+        <v>653</v>
+      </c>
+      <c r="B23" s="156" t="s">
         <v>827</v>
       </c>
     </row>
@@ -54137,10 +54176,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -54201,75 +54240,80 @@
         <v>834</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="182" t="s">
+    <row r="7" spans="1:8" s="212" customFormat="1" ht="14.25">
+      <c r="A7" s="222" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>828</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="169" customFormat="1" ht="14.25">
-      <c r="A8" s="182" t="s">
+    <row r="9" spans="1:8" s="169" customFormat="1" ht="14.25">
+      <c r="A9" s="182" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="212"/>
-    </row>
-    <row r="11" spans="1:8" s="212" customFormat="1" ht="14.25">
-      <c r="A11" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="221" t="s">
-        <v>793</v>
-      </c>
-      <c r="C11" s="220"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="212"/>
     </row>
     <row r="12" spans="1:8" s="212" customFormat="1" ht="14.25">
-      <c r="A12" s="222"/>
-      <c r="B12" s="221"/>
+      <c r="A12" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="221" t="s">
+        <v>793</v>
+      </c>
       <c r="C12" s="220"/>
     </row>
     <row r="13" spans="1:8" s="212" customFormat="1" ht="14.25">
-      <c r="A13" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="221" t="s">
-        <v>845</v>
-      </c>
+      <c r="A13" s="222"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="220"/>
-      <c r="H13" s="212" t="s">
-        <v>846</v>
-      </c>
     </row>
     <row r="14" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A14" s="222" t="s">
-        <v>855</v>
-      </c>
-      <c r="B14" s="221"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="221" t="s">
+        <v>845</v>
+      </c>
       <c r="C14" s="220"/>
+      <c r="H14" s="212" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="212" customFormat="1" ht="14.25">
       <c r="A15" s="222" t="s">
+        <v>855</v>
+      </c>
+      <c r="B15" s="221"/>
+      <c r="C15" s="220"/>
+    </row>
+    <row r="16" spans="1:8" s="212" customFormat="1" ht="14.25">
+      <c r="A16" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="212" t="s">
+      <c r="B16" s="212" t="s">
         <v>851</v>
       </c>
-      <c r="C15" s="220"/>
-      <c r="H15" s="212" t="s">
+      <c r="C16" s="220"/>
+      <c r="H16" s="212" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="222" t="s">
+    <row r="17" spans="1:2" ht="14.25">
+      <c r="A17" s="222" t="s">
         <v>857</v>
       </c>
-      <c r="B16" s="212" t="s">
+      <c r="B17" s="212" t="s">
         <v>858</v>
       </c>
     </row>
